--- a/src/main/resources/testdata.xlsx
+++ b/src/main/resources/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Documents/Jay/internships/gogox/ca-automation/CATests/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C38207-898F-7843-B9DE-C4C3167A5484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A483F1D-D4C8-3843-82CD-C9BA9462DBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="500" windowWidth="17160" windowHeight="7740" xr2:uid="{24112C86-0526-0E43-AF16-4474B8EEE881}"/>
+    <workbookView xWindow="12800" yWindow="500" windowWidth="12800" windowHeight="15500" xr2:uid="{24112C86-0526-0E43-AF16-4474B8EEE881}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
   <si>
     <t>TEST_CASE</t>
   </si>
@@ -149,37 +149,58 @@
     <t>jyots</t>
   </si>
   <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>12345135</t>
+  </si>
+  <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>No tip</t>
+  </si>
+  <si>
+    <t>Today 28 Jun</t>
+  </si>
+  <si>
+    <t>DRIVER_PHONENUMBER</t>
+  </si>
+  <si>
+    <t>DRIVER_PASSWORD</t>
+  </si>
+  <si>
+    <t>Aa123456</t>
+  </si>
+  <si>
+    <t>qadmaster1@gogotech.hk</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
     <t>Cash</t>
   </si>
   <si>
-    <t>TC001_Premium Van order on personal account with no additional requirements</t>
-  </si>
-  <si>
-    <t>Van</t>
-  </si>
-  <si>
-    <t>12345135</t>
-  </si>
-  <si>
-    <t>852</t>
-  </si>
-  <si>
-    <t>No tip</t>
-  </si>
-  <si>
-    <t>Today 28 Jun</t>
-  </si>
-  <si>
-    <t>DRIVER_PHONENUMBER</t>
-  </si>
-  <si>
-    <t>DRIVER_PASSWORD</t>
-  </si>
-  <si>
-    <t>Aa123456</t>
-  </si>
-  <si>
-    <t>jyotsna.venkatesen+391@gogox.com</t>
+    <t>CANCEL_FLAG</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>jyotsna.venkatesen+418@gogox.com</t>
+  </si>
+  <si>
+    <t>TC001_Complete an order with personal account</t>
+  </si>
+  <si>
+    <t>TC001_Cancel an order with personal account</t>
+  </si>
+  <si>
+    <t>TC002_Cancel an order with business account</t>
+  </si>
+  <si>
+    <t>TC002_Complete an order with business account</t>
   </si>
 </sst>
 </file>
@@ -247,9 +268,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -585,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3AA97D-16AD-D244-9A20-5836C76A479A}">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -597,7 +618,7 @@
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,19 +709,22 @@
       <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>45</v>
+      <c r="AE1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:33">
       <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C2" s="2">
         <v>12345678</v>
@@ -721,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>34</v>
@@ -772,62 +796,339 @@
         <v>36</v>
       </c>
       <c r="Z2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD2" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="AA2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="AE2">
         <v>99999993</v>
       </c>
       <c r="AF2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="AD3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3">
+        <v>99999993</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
-      <c r="B3" s="4"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
+    <row r="4" spans="1:33">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE4">
+        <v>99999993</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE5">
+        <v>99999993</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG5" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{54F00A6C-8041-114B-B516-184B18B5D7F4}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{8B6BD0EB-A098-4448-9FB5-C09BE64E304E}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{32185C2A-D296-2443-A3AA-16325680CC40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/main/resources/testdata.xlsx
+++ b/src/main/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Documents/Jay/internships/gogox/ca-automation/CATests/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A483F1D-D4C8-3843-82CD-C9BA9462DBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912D521F-8D8E-854D-83FD-C92C39831E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12800" yWindow="500" windowWidth="12800" windowHeight="15500" xr2:uid="{24112C86-0526-0E43-AF16-4474B8EEE881}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
   <si>
     <t>TEST_CASE</t>
   </si>
@@ -191,16 +191,22 @@
     <t>jyotsna.venkatesen+418@gogox.com</t>
   </si>
   <si>
-    <t>TC001_Complete an order with personal account</t>
-  </si>
-  <si>
     <t>TC001_Cancel an order with personal account</t>
   </si>
   <si>
-    <t>TC002_Cancel an order with business account</t>
-  </si>
-  <si>
     <t>TC002_Complete an order with business account</t>
+  </si>
+  <si>
+    <t>COUPON</t>
+  </si>
+  <si>
+    <t>TC004_Cancel an order with business account</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>TC003_Complete an order with personal account</t>
   </si>
 </sst>
 </file>
@@ -606,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3AA97D-16AD-D244-9A20-5836C76A479A}">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AH10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -618,7 +624,7 @@
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,10 +724,13 @@
       <c r="AG1" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:34">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>50</v>
@@ -819,10 +828,13 @@
       <c r="AG2" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="AH2" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
@@ -920,10 +932,13 @@
       <c r="AG3" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="AH3" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:34">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>50</v>
@@ -1018,13 +1033,16 @@
       <c r="AF4" t="s">
         <v>44</v>
       </c>
-      <c r="AG4" s="2" t="b">
+      <c r="AG4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH4" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:34">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -1119,14 +1137,157 @@
       <c r="AF5" t="s">
         <v>44</v>
       </c>
-      <c r="AG5" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="AG5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="B7" s="6"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="B9"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="B10"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{8B6BD0EB-A098-4448-9FB5-C09BE64E304E}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{32185C2A-D296-2443-A3AA-16325680CC40}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{83565BCF-0180-9F48-8DF1-CD01C8CC48E5}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{F5A03BD8-2541-A342-BBC0-41BD04C60D4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/src/main/resources/testdata.xlsx
+++ b/src/main/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Documents/Jay/internships/gogox/ca-automation/CATests/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46954D11-8371-6F40-8153-B424517A17F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9219E82-C59B-344B-B401-A970ED9AF752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11220" yWindow="500" windowWidth="12800" windowHeight="15500" xr2:uid="{24112C86-0526-0E43-AF16-4474B8EEE881}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="85">
   <si>
     <t>TEST_CASE</t>
   </si>
@@ -128,9 +128,6 @@
     <t>TIP</t>
   </si>
   <si>
-    <t>Tsim Sha Tsui, Hong Kong</t>
-  </si>
-  <si>
     <t>Prince Edward, Hong Kong</t>
   </si>
   <si>
@@ -176,18 +173,12 @@
     <t>qadmaster1@gogotech.hk</t>
   </si>
   <si>
-    <t>Card</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
     <t>CANCEL_FLAG</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>jyotsna.venkatesen+418@gogox.com</t>
   </si>
   <si>
@@ -200,109 +191,106 @@
     <t>ORDER_TYPE</t>
   </si>
   <si>
+    <t>SENDER_NAME</t>
+  </si>
+  <si>
+    <t>SENDER_NUMBER</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Hung Hom, Hong Kong</t>
+  </si>
+  <si>
+    <t>1701S</t>
+  </si>
+  <si>
+    <t>97753136</t>
+  </si>
+  <si>
+    <t>ESTATE_NUMBER_SENDER</t>
+  </si>
+  <si>
+    <t>ROOM_FLOOR_SENDER</t>
+  </si>
+  <si>
+    <t>ESTATE_NUMBER_RECIPIENT</t>
+  </si>
+  <si>
+    <t>Homantin, Hong Kong</t>
+  </si>
+  <si>
+    <t>ROOM_FLOOR_RECIPIENT</t>
+  </si>
+  <si>
+    <t>RECIPIENT_NAME</t>
+  </si>
+  <si>
+    <t>1701D</t>
+  </si>
+  <si>
+    <t>jyots2</t>
+  </si>
+  <si>
+    <t>RECIPIENT_NUMBER</t>
+  </si>
+  <si>
+    <t>18372638</t>
+  </si>
+  <si>
+    <t>DROP_TIME</t>
+  </si>
+  <si>
+    <t>Instant</t>
+  </si>
+  <si>
+    <t>CONTENT_TYPE</t>
+  </si>
+  <si>
+    <t>Food Drinks</t>
+  </si>
+  <si>
+    <t>SIZE</t>
+  </si>
+  <si>
+    <t>WEIGHT</t>
+  </si>
+  <si>
+    <t>Lohas park</t>
+  </si>
+  <si>
+    <t>kennedy town</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>T</t>
   </si>
   <si>
-    <t>SENDER_NAME</t>
-  </si>
-  <si>
-    <t>SENDER_NUMBER</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Hung Hom, Hong Kong</t>
-  </si>
-  <si>
-    <t>1701S</t>
-  </si>
-  <si>
-    <t>97753136</t>
-  </si>
-  <si>
-    <t>ESTATE_NUMBER_SENDER</t>
-  </si>
-  <si>
-    <t>ROOM_FLOOR_SENDER</t>
-  </si>
-  <si>
-    <t>ESTATE_NUMBER_RECIPIENT</t>
-  </si>
-  <si>
-    <t>Homantin, Hong Kong</t>
-  </si>
-  <si>
-    <t>ROOM_FLOOR_RECIPIENT</t>
-  </si>
-  <si>
-    <t>RECIPIENT_NAME</t>
-  </si>
-  <si>
-    <t>1701D</t>
-  </si>
-  <si>
-    <t>jyots2</t>
-  </si>
-  <si>
-    <t>RECIPIENT_NUMBER</t>
-  </si>
-  <si>
-    <t>18372638</t>
-  </si>
-  <si>
-    <t>DROP_TIME</t>
-  </si>
-  <si>
-    <t>Instant</t>
-  </si>
-  <si>
-    <t>CONTENT_TYPE</t>
-  </si>
-  <si>
-    <t>Food Drinks</t>
-  </si>
-  <si>
-    <t>SIZE</t>
-  </si>
-  <si>
-    <t>WEIGHT</t>
-  </si>
-  <si>
-    <t>TC001_Cancel a Transport order with personal account</t>
-  </si>
-  <si>
-    <t>TC003_Complete a Transport order with personal account</t>
-  </si>
-  <si>
-    <t>Lohas park</t>
-  </si>
-  <si>
-    <t>kennedy town</t>
-  </si>
-  <si>
-    <t>TC002_Cancel a Transport  order with business account</t>
-  </si>
-  <si>
-    <t>TC004_Complete a Transport order with business account</t>
-  </si>
-  <si>
-    <t>TC005_Cancel a Delivery order with personal account</t>
-  </si>
-  <si>
-    <t>TC006_Cancel a Delivery order with business account</t>
-  </si>
-  <si>
-    <t>TC007_Complete a Delivery order with personal account</t>
-  </si>
-  <si>
-    <t>TC008_Complete a Delivery order with business account</t>
-  </si>
-  <si>
-    <t>Chai wan, hong kong</t>
-  </si>
-  <si>
-    <t>Shek kip mei, hong kong</t>
+    <t>TC001_Complete a transport order with personal account</t>
+  </si>
+  <si>
+    <t>TC002_Cancel a transport order with personal account</t>
+  </si>
+  <si>
+    <t>TC003_Complete a transport order with business account</t>
+  </si>
+  <si>
+    <t>TC004_Cancel a transport order with business account</t>
+  </si>
+  <si>
+    <t>TC005_Complete a delivery order with personal account</t>
+  </si>
+  <si>
+    <t>TC006_Cancel a delivery order with personal account</t>
+  </si>
+  <si>
+    <t>TC007_Complete a delivery order with business account</t>
+  </si>
+  <si>
+    <t>TC008_Cancel a delivery order with business account</t>
   </si>
 </sst>
 </file>
@@ -708,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3AA97D-16AD-D244-9A20-5836C76A479A}">
-  <dimension ref="A1:AU14"/>
+  <dimension ref="A1:AU25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -812,55 +800,55 @@
         <v>29</v>
       </c>
       <c r="AE1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="AG1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AP1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AP1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AS1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="AU1" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:47">
@@ -868,43 +856,43 @@
         <v>77</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>12345678</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="O2" s="2">
         <v>2</v>
@@ -928,37 +916,37 @@
         <v>0</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="Z2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="AE2">
-        <v>99999993</v>
+        <v>56666663</v>
       </c>
       <c r="AF2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>49</v>
@@ -967,51 +955,87 @@
         <v>0</v>
       </c>
       <c r="AI2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT2" s="4">
+        <v>20</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:47">
       <c r="A3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
+        <v>78</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="2">
         <v>12345678</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="O3" s="2">
         <v>2</v>
@@ -1035,90 +1059,126 @@
         <v>0</v>
       </c>
       <c r="V3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="Z3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AA3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="AE3">
-        <v>99999993</v>
+        <v>56666663</v>
       </c>
       <c r="AF3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="AH3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="AI3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT3" s="4">
+        <v>20</v>
+      </c>
+      <c r="AU3" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:47">
       <c r="A4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>50</v>
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
       </c>
       <c r="C4" s="2">
         <v>12345678</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="O4" s="2">
         <v>2</v>
@@ -1142,90 +1202,126 @@
         <v>0</v>
       </c>
       <c r="V4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="Z4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AA4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AC4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="AE4">
-        <v>99999993</v>
+        <v>56666663</v>
       </c>
       <c r="AF4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AH4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="AI4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>20</v>
+      </c>
+      <c r="AU4" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:47">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2">
         <v>12345678</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>64</v>
+      <c r="D5" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="O5" s="2">
         <v>2</v>
@@ -1249,90 +1345,126 @@
         <v>0</v>
       </c>
       <c r="V5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="Z5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AA5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AC5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="AE5">
-        <v>99999993</v>
+        <v>56666663</v>
       </c>
       <c r="AF5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="AH5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="AI5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT5" s="4">
+        <v>20</v>
+      </c>
+      <c r="AU5" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:47">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2">
         <v>12345678</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="O6" s="2">
         <v>2</v>
@@ -1356,37 +1488,37 @@
         <v>0</v>
       </c>
       <c r="V6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="Z6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AA6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AC6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD6" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="AE6">
         <v>56666663</v>
       </c>
       <c r="AF6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG6" s="2" t="s">
         <v>49</v>
@@ -1395,37 +1527,37 @@
         <v>0</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AM6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AN6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AO6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AQ6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AQ6" s="1" t="s">
+      <c r="AS6" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="AT6" s="4">
         <v>20</v>
@@ -1436,46 +1568,46 @@
     </row>
     <row r="7" spans="1:47">
       <c r="A7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
+        <v>82</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C7" s="2">
         <v>12345678</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F7" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="O7" s="2">
         <v>2</v>
@@ -1499,76 +1631,76 @@
         <v>0</v>
       </c>
       <c r="V7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="Z7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AA7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD7" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="AE7">
         <v>56666663</v>
       </c>
       <c r="AF7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="AH7" s="2" t="b">
         <v>0</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AM7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AN7" s="1" t="s">
+      <c r="AO7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AO7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP7" s="1" t="s">
+      <c r="AQ7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AQ7" s="1" t="s">
+      <c r="AS7" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="AR7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS7" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="AT7" s="4">
         <v>20</v>
@@ -1579,46 +1711,46 @@
     </row>
     <row r="8" spans="1:47">
       <c r="A8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>50</v>
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
       </c>
       <c r="C8" s="2">
         <v>12345678</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="O8" s="2">
         <v>2</v>
@@ -1642,76 +1774,76 @@
         <v>0</v>
       </c>
       <c r="V8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="Z8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AA8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="2" t="s">
+      <c r="AC8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD8" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="AE8">
         <v>56666663</v>
       </c>
       <c r="AF8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AH8" s="2" t="b">
         <v>0</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AM8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AN8" s="1" t="s">
+      <c r="AO8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AO8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AQ8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AQ8" s="1" t="s">
+      <c r="AS8" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="AR8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS8" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="AT8" s="4">
         <v>20</v>
@@ -1722,46 +1854,46 @@
     </row>
     <row r="9" spans="1:47">
       <c r="A9" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2">
         <v>12345678</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F9" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="O9" s="2">
         <v>2</v>
@@ -1785,76 +1917,76 @@
         <v>0</v>
       </c>
       <c r="V9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="Z9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AA9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="2" t="s">
+      <c r="AC9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD9" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="AE9">
         <v>56666663</v>
       </c>
       <c r="AF9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="AH9" s="2" t="b">
         <v>0</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AM9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AN9" s="1" t="s">
+      <c r="AO9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AO9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP9" s="1" t="s">
+      <c r="AQ9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AQ9" s="1" t="s">
+      <c r="AS9" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="AR9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS9" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="AT9" s="4">
         <v>20</v>
@@ -2019,6 +2151,162 @@
       <c r="AT14" s="4"/>
       <c r="AU14" s="4"/>
     </row>
+    <row r="22" spans="2:47">
+      <c r="B22" s="6"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+    </row>
+    <row r="23" spans="2:47">
+      <c r="B23"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4"/>
+    </row>
+    <row r="24" spans="2:47">
+      <c r="B24" s="6"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="4"/>
+      <c r="AT24" s="4"/>
+      <c r="AU24" s="4"/>
+    </row>
+    <row r="25" spans="2:47">
+      <c r="B25"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="4"/>
+      <c r="AT25" s="4"/>
+      <c r="AU25" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
